--- a/programs/pipelining/pipeliningregandramhazards.xlsx
+++ b/programs/pipelining/pipeliningregandramhazards.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vacla\Projects\cpu\programs\pipelining\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FA279F7-6025-4035-9A31-7745BB525D07}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4929D726-AD32-4B54-A8F2-E0D375FDEC0A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{283EBD8D-59D5-476D-AFCF-7CC67732E96E}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{283EBD8D-59D5-476D-AFCF-7CC67732E96E}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Code" sheetId="1" r:id="rId1"/>
+    <sheet name="Pipelining" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="39">
   <si>
     <t>Immediate</t>
   </si>
@@ -139,6 +140,18 @@
   </si>
   <si>
     <t>LOAD R1, R0</t>
+  </si>
+  <si>
+    <t>F</t>
+  </si>
+  <si>
+    <t>E1</t>
+  </si>
+  <si>
+    <t>E2</t>
+  </si>
+  <si>
+    <t>ST</t>
   </si>
 </sst>
 </file>
@@ -187,15 +200,15 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -513,8 +526,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{54AD89BC-1A2E-4FC8-B700-96A893719BCA}">
   <dimension ref="A1:S13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="S11" sqref="S11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B11" sqref="A8:B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -579,33 +592,33 @@
       <c r="C2" s="1">
         <v>1</v>
       </c>
-      <c r="D2" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2" t="s">
+      <c r="D2" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" s="5"/>
+      <c r="F2" s="5"/>
+      <c r="G2" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="H2" s="2"/>
+      <c r="H2" s="5"/>
       <c r="I2" s="1" t="s">
         <v>3</v>
       </c>
       <c r="J2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="K2" s="2" t="s">
+      <c r="K2" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="L2" s="2"/>
-      <c r="M2" s="2"/>
-      <c r="N2" s="2" t="s">
+      <c r="L2" s="5"/>
+      <c r="M2" s="5"/>
+      <c r="N2" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="O2" s="2"/>
-      <c r="P2" s="2"/>
-      <c r="Q2" s="2"/>
-      <c r="R2" s="2"/>
+      <c r="O2" s="5"/>
+      <c r="P2" s="5"/>
+      <c r="Q2" s="5"/>
+      <c r="R2" s="5"/>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
@@ -614,35 +627,35 @@
       <c r="C3" s="1">
         <v>1</v>
       </c>
-      <c r="D3" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2" t="s">
+      <c r="D3" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="E3" s="5"/>
+      <c r="F3" s="5"/>
+      <c r="G3" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="H3" s="2"/>
+      <c r="H3" s="5"/>
       <c r="I3" s="1" t="s">
         <v>8</v>
       </c>
       <c r="J3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="K3" s="2" t="s">
+      <c r="K3" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="L3" s="2"/>
-      <c r="M3" s="2"/>
-      <c r="N3" s="2"/>
-      <c r="O3" s="2" t="s">
+      <c r="L3" s="5"/>
+      <c r="M3" s="5"/>
+      <c r="N3" s="5"/>
+      <c r="O3" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="P3" s="2"/>
-      <c r="Q3" s="2" t="s">
+      <c r="P3" s="5"/>
+      <c r="Q3" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="R3" s="2"/>
+      <c r="R3" s="5"/>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
@@ -660,10 +673,10 @@
       <c r="F4" s="1">
         <v>0</v>
       </c>
-      <c r="G4" s="2" t="s">
+      <c r="G4" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="H4" s="2"/>
+      <c r="H4" s="5"/>
       <c r="I4" s="1" t="s">
         <v>13</v>
       </c>
@@ -676,77 +689,77 @@
       <c r="L4" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="M4" s="2" t="s">
+      <c r="M4" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="N4" s="2"/>
-      <c r="O4" s="2"/>
-      <c r="P4" s="2"/>
-      <c r="Q4" s="2" t="s">
+      <c r="N4" s="5"/>
+      <c r="O4" s="5"/>
+      <c r="P4" s="5"/>
+      <c r="Q4" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="R4" s="2"/>
+      <c r="R4" s="5"/>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
         <v>18</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="C5" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="D5" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
-      <c r="G5" s="2"/>
-      <c r="H5" s="2"/>
-      <c r="I5" s="2" t="s">
+      <c r="E5" s="5"/>
+      <c r="F5" s="5"/>
+      <c r="G5" s="5"/>
+      <c r="H5" s="5"/>
+      <c r="I5" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="J5" s="2"/>
-      <c r="K5" s="2"/>
-      <c r="L5" s="2"/>
-      <c r="M5" s="2"/>
-      <c r="N5" s="2"/>
-      <c r="O5" s="2"/>
-      <c r="P5" s="2"/>
-      <c r="Q5" s="2"/>
-      <c r="R5" s="2"/>
+      <c r="J5" s="5"/>
+      <c r="K5" s="5"/>
+      <c r="L5" s="5"/>
+      <c r="M5" s="5"/>
+      <c r="N5" s="5"/>
+      <c r="O5" s="5"/>
+      <c r="P5" s="5"/>
+      <c r="Q5" s="5"/>
+      <c r="R5" s="5"/>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.3">
       <c r="B6" t="s">
         <v>22</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="C6" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
-      <c r="G6" s="2" t="s">
+      <c r="D6" s="5"/>
+      <c r="E6" s="5"/>
+      <c r="F6" s="5"/>
+      <c r="G6" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="H6" s="2"/>
-      <c r="I6" s="2" t="s">
+      <c r="H6" s="5"/>
+      <c r="I6" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="J6" s="2"/>
-      <c r="K6" s="2" t="s">
+      <c r="J6" s="5"/>
+      <c r="K6" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="L6" s="2"/>
-      <c r="M6" s="2"/>
-      <c r="N6" s="2"/>
-      <c r="O6" s="2"/>
-      <c r="P6" s="2"/>
-      <c r="Q6" s="2" t="s">
+      <c r="L6" s="5"/>
+      <c r="M6" s="5"/>
+      <c r="N6" s="5"/>
+      <c r="O6" s="5"/>
+      <c r="P6" s="5"/>
+      <c r="Q6" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="R6" s="2"/>
+      <c r="R6" s="5"/>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="C7" s="3"/>
+      <c r="C7" s="2"/>
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
@@ -762,7 +775,7 @@
       <c r="P7" s="1"/>
       <c r="Q7" s="1"/>
       <c r="R7" s="1"/>
-      <c r="S7" s="3" t="s">
+      <c r="S7" s="2" t="s">
         <v>26</v>
       </c>
     </row>
@@ -773,55 +786,55 @@
       <c r="B8" t="s">
         <v>28</v>
       </c>
-      <c r="C8" s="4">
-        <v>1</v>
-      </c>
-      <c r="D8" s="4">
-        <v>0</v>
-      </c>
-      <c r="E8" s="4">
-        <v>0</v>
-      </c>
-      <c r="F8" s="4">
-        <v>0</v>
-      </c>
-      <c r="G8" s="4">
-        <v>0</v>
-      </c>
-      <c r="H8" s="4">
-        <v>0</v>
-      </c>
-      <c r="I8" s="4">
-        <v>1</v>
-      </c>
-      <c r="J8" s="4">
-        <v>0</v>
-      </c>
-      <c r="K8" s="4">
-        <v>0</v>
-      </c>
-      <c r="L8" s="4">
-        <v>0</v>
-      </c>
-      <c r="M8" s="4">
-        <v>1</v>
-      </c>
-      <c r="N8" s="4">
-        <v>0</v>
-      </c>
-      <c r="O8" s="4">
-        <v>0</v>
-      </c>
-      <c r="P8" s="4">
-        <v>0</v>
-      </c>
-      <c r="Q8" s="4">
-        <v>0</v>
-      </c>
-      <c r="R8" s="4">
-        <v>1</v>
-      </c>
-      <c r="S8" s="4" t="str">
+      <c r="C8" s="3">
+        <v>1</v>
+      </c>
+      <c r="D8" s="3">
+        <v>0</v>
+      </c>
+      <c r="E8" s="3">
+        <v>0</v>
+      </c>
+      <c r="F8" s="3">
+        <v>0</v>
+      </c>
+      <c r="G8" s="3">
+        <v>0</v>
+      </c>
+      <c r="H8" s="3">
+        <v>0</v>
+      </c>
+      <c r="I8" s="3">
+        <v>1</v>
+      </c>
+      <c r="J8" s="3">
+        <v>0</v>
+      </c>
+      <c r="K8" s="3">
+        <v>0</v>
+      </c>
+      <c r="L8" s="3">
+        <v>0</v>
+      </c>
+      <c r="M8" s="3">
+        <v>1</v>
+      </c>
+      <c r="N8" s="3">
+        <v>0</v>
+      </c>
+      <c r="O8" s="3">
+        <v>0</v>
+      </c>
+      <c r="P8" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q8" s="3">
+        <v>0</v>
+      </c>
+      <c r="R8" s="3">
+        <v>1</v>
+      </c>
+      <c r="S8" s="3" t="str">
         <f>DEC2HEX(C8*2^15 + D8*2^14 + E8*2^13 + F8*2^12 + G8*2^11 + H8*2^10 + I8*2^9 + J8*2^8 + K8*2^7 + L8*2^6 + M8*2^5 + N8*2^4 + O8 * 2 ^ 3 + P8  * 2^2 + Q8 * 2 + R8)</f>
         <v>8221</v>
       </c>
@@ -830,59 +843,59 @@
       <c r="A9" t="s">
         <v>29</v>
       </c>
-      <c r="B9" s="5" t="s">
+      <c r="B9" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="C9" s="4">
-        <v>0</v>
-      </c>
-      <c r="D9" s="4">
-        <v>0</v>
-      </c>
-      <c r="E9" s="4">
-        <v>0</v>
-      </c>
-      <c r="F9" s="4">
-        <v>0</v>
-      </c>
-      <c r="G9" s="4">
-        <v>1</v>
-      </c>
-      <c r="H9" s="4">
-        <v>0</v>
-      </c>
-      <c r="I9" s="4">
-        <v>1</v>
-      </c>
-      <c r="J9" s="4">
-        <v>1</v>
-      </c>
-      <c r="K9" s="4">
-        <v>1</v>
-      </c>
-      <c r="L9" s="4">
-        <v>1</v>
-      </c>
-      <c r="M9" s="4">
-        <v>0</v>
-      </c>
-      <c r="N9" s="4">
-        <v>0</v>
-      </c>
-      <c r="O9" s="4">
-        <v>0</v>
-      </c>
-      <c r="P9" s="4">
-        <v>0</v>
-      </c>
-      <c r="Q9" s="4">
-        <v>0</v>
-      </c>
-      <c r="R9" s="4">
-        <v>1</v>
-      </c>
-      <c r="S9" s="4" t="str">
-        <f t="shared" ref="S9:S13" si="0">DEC2HEX(C9*2^15 + D9*2^14 + E9*2^13 + F9*2^12 + G9*2^11 + H9*2^10 + I9*2^9 + J9*2^8 + K9*2^7 + L9*2^6 + M9*2^5 + N9*2^4 + O9 * 2 ^ 3 + P9  * 2^2 + Q9 * 2 + R9)</f>
+      <c r="C9" s="3">
+        <v>0</v>
+      </c>
+      <c r="D9" s="3">
+        <v>0</v>
+      </c>
+      <c r="E9" s="3">
+        <v>0</v>
+      </c>
+      <c r="F9" s="3">
+        <v>0</v>
+      </c>
+      <c r="G9" s="3">
+        <v>1</v>
+      </c>
+      <c r="H9" s="3">
+        <v>0</v>
+      </c>
+      <c r="I9" s="3">
+        <v>1</v>
+      </c>
+      <c r="J9" s="3">
+        <v>1</v>
+      </c>
+      <c r="K9" s="3">
+        <v>1</v>
+      </c>
+      <c r="L9" s="3">
+        <v>1</v>
+      </c>
+      <c r="M9" s="3">
+        <v>0</v>
+      </c>
+      <c r="N9" s="3">
+        <v>0</v>
+      </c>
+      <c r="O9" s="3">
+        <v>0</v>
+      </c>
+      <c r="P9" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q9" s="3">
+        <v>0</v>
+      </c>
+      <c r="R9" s="3">
+        <v>1</v>
+      </c>
+      <c r="S9" s="3" t="str">
+        <f t="shared" ref="S9:S10" si="0">DEC2HEX(C9*2^15 + D9*2^14 + E9*2^13 + F9*2^12 + G9*2^11 + H9*2^10 + I9*2^9 + J9*2^8 + K9*2^7 + L9*2^6 + M9*2^5 + N9*2^4 + O9 * 2 ^ 3 + P9  * 2^2 + Q9 * 2 + R9)</f>
         <v>BC1</v>
       </c>
     </row>
@@ -890,58 +903,58 @@
       <c r="A10" t="s">
         <v>30</v>
       </c>
-      <c r="B10" s="5" t="s">
+      <c r="B10" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="C10" s="4">
-        <v>0</v>
-      </c>
-      <c r="D10" s="4">
-        <v>0</v>
-      </c>
-      <c r="E10" s="4">
-        <v>0</v>
-      </c>
-      <c r="F10" s="4">
-        <v>0</v>
-      </c>
-      <c r="G10" s="4">
-        <v>0</v>
-      </c>
-      <c r="H10" s="4">
-        <v>1</v>
-      </c>
-      <c r="I10" s="4">
-        <v>1</v>
-      </c>
-      <c r="J10" s="4">
-        <v>0</v>
-      </c>
-      <c r="K10" s="4">
-        <v>0</v>
-      </c>
-      <c r="L10" s="4">
-        <v>0</v>
-      </c>
-      <c r="M10" s="4">
-        <v>0</v>
-      </c>
-      <c r="N10" s="4">
-        <v>0</v>
-      </c>
-      <c r="O10" s="4">
-        <v>0</v>
-      </c>
-      <c r="P10" s="4">
-        <v>0</v>
-      </c>
-      <c r="Q10" s="4">
-        <v>0</v>
-      </c>
-      <c r="R10" s="4">
-        <v>0</v>
-      </c>
-      <c r="S10" s="4" t="str">
+      <c r="C10" s="3">
+        <v>0</v>
+      </c>
+      <c r="D10" s="3">
+        <v>0</v>
+      </c>
+      <c r="E10" s="3">
+        <v>0</v>
+      </c>
+      <c r="F10" s="3">
+        <v>0</v>
+      </c>
+      <c r="G10" s="3">
+        <v>0</v>
+      </c>
+      <c r="H10" s="3">
+        <v>1</v>
+      </c>
+      <c r="I10" s="3">
+        <v>1</v>
+      </c>
+      <c r="J10" s="3">
+        <v>0</v>
+      </c>
+      <c r="K10" s="3">
+        <v>0</v>
+      </c>
+      <c r="L10" s="3">
+        <v>0</v>
+      </c>
+      <c r="M10" s="3">
+        <v>0</v>
+      </c>
+      <c r="N10" s="3">
+        <v>0</v>
+      </c>
+      <c r="O10" s="3">
+        <v>0</v>
+      </c>
+      <c r="P10" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q10" s="3">
+        <v>0</v>
+      </c>
+      <c r="R10" s="3">
+        <v>0</v>
+      </c>
+      <c r="S10" s="3" t="str">
         <f t="shared" si="0"/>
         <v>600</v>
       </c>
@@ -950,96 +963,86 @@
       <c r="A11" t="s">
         <v>32</v>
       </c>
-      <c r="B11" s="5" t="s">
+      <c r="B11" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="C11" s="4">
-        <v>0</v>
-      </c>
-      <c r="D11" s="4">
-        <v>1</v>
-      </c>
-      <c r="E11" s="4">
-        <v>1</v>
-      </c>
-      <c r="F11" s="4">
-        <v>1</v>
-      </c>
-      <c r="G11" s="4">
-        <v>0</v>
-      </c>
-      <c r="H11" s="4">
-        <v>0</v>
-      </c>
-      <c r="I11" s="4">
-        <v>0</v>
-      </c>
-      <c r="J11" s="4">
-        <v>0</v>
-      </c>
-      <c r="K11" s="4">
-        <v>0</v>
-      </c>
-      <c r="L11" s="4">
-        <v>0</v>
-      </c>
-      <c r="M11" s="4">
-        <v>0</v>
-      </c>
-      <c r="N11" s="4">
-        <v>0</v>
-      </c>
-      <c r="O11" s="4">
-        <v>0</v>
-      </c>
-      <c r="P11" s="4">
-        <v>0</v>
-      </c>
-      <c r="Q11" s="4">
-        <v>0</v>
-      </c>
-      <c r="R11" s="4">
-        <v>0</v>
-      </c>
-      <c r="S11" s="4" t="str">
+      <c r="C11" s="3">
+        <v>0</v>
+      </c>
+      <c r="D11" s="3">
+        <v>1</v>
+      </c>
+      <c r="E11" s="3">
+        <v>1</v>
+      </c>
+      <c r="F11" s="3">
+        <v>1</v>
+      </c>
+      <c r="G11" s="3">
+        <v>0</v>
+      </c>
+      <c r="H11" s="3">
+        <v>0</v>
+      </c>
+      <c r="I11" s="3">
+        <v>0</v>
+      </c>
+      <c r="J11" s="3">
+        <v>0</v>
+      </c>
+      <c r="K11" s="3">
+        <v>0</v>
+      </c>
+      <c r="L11" s="3">
+        <v>0</v>
+      </c>
+      <c r="M11" s="3">
+        <v>0</v>
+      </c>
+      <c r="N11" s="3">
+        <v>0</v>
+      </c>
+      <c r="O11" s="3">
+        <v>0</v>
+      </c>
+      <c r="P11" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q11" s="3">
+        <v>0</v>
+      </c>
+      <c r="R11" s="3">
+        <v>0</v>
+      </c>
+      <c r="S11" s="3" t="str">
         <f>DEC2HEX(C11*2^15 + D11*2^14 + E11*2^13 + F11*2^12 + G11*2^11 + H11*2^10 + I11*2^9 + J11*2^8 + K11*2^7 + L11*2^6 + M11*2^5 + N11*2^4 + O11 * 2 ^ 3 + P11  * 2^2 + Q11 * 2 + R11)</f>
         <v>7000</v>
       </c>
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="B12" s="5"/>
+      <c r="B12" s="4"/>
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="C13" s="4"/>
-      <c r="D13" s="4"/>
-      <c r="E13" s="4"/>
-      <c r="F13" s="4"/>
-      <c r="G13" s="4"/>
-      <c r="H13" s="4"/>
-      <c r="I13" s="4"/>
-      <c r="J13" s="4"/>
-      <c r="K13" s="4"/>
-      <c r="L13" s="4"/>
-      <c r="M13" s="4"/>
-      <c r="N13" s="4"/>
-      <c r="O13" s="4"/>
-      <c r="P13" s="4"/>
-      <c r="Q13" s="4"/>
-      <c r="R13" s="4"/>
-      <c r="S13" s="4"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3"/>
+      <c r="G13" s="3"/>
+      <c r="H13" s="3"/>
+      <c r="I13" s="3"/>
+      <c r="J13" s="3"/>
+      <c r="K13" s="3"/>
+      <c r="L13" s="3"/>
+      <c r="M13" s="3"/>
+      <c r="N13" s="3"/>
+      <c r="O13" s="3"/>
+      <c r="P13" s="3"/>
+      <c r="Q13" s="3"/>
+      <c r="R13" s="3"/>
+      <c r="S13" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="G4:H4"/>
-    <mergeCell ref="M4:P4"/>
-    <mergeCell ref="Q4:R4"/>
-    <mergeCell ref="D5:H5"/>
-    <mergeCell ref="I5:R5"/>
-    <mergeCell ref="C6:F6"/>
-    <mergeCell ref="G6:H6"/>
-    <mergeCell ref="I6:J6"/>
-    <mergeCell ref="K6:P6"/>
-    <mergeCell ref="Q6:R6"/>
     <mergeCell ref="D2:F2"/>
     <mergeCell ref="G2:H2"/>
     <mergeCell ref="K2:M2"/>
@@ -1049,7 +1052,112 @@
     <mergeCell ref="K3:N3"/>
     <mergeCell ref="O3:P3"/>
     <mergeCell ref="Q3:R3"/>
+    <mergeCell ref="C6:F6"/>
+    <mergeCell ref="G6:H6"/>
+    <mergeCell ref="I6:J6"/>
+    <mergeCell ref="K6:P6"/>
+    <mergeCell ref="Q6:R6"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="M4:P4"/>
+    <mergeCell ref="Q4:R4"/>
+    <mergeCell ref="D5:H5"/>
+    <mergeCell ref="I5:R5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{51EAB318-5794-4230-B6C4-3E439CA2E766}">
+  <dimension ref="A1:J4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="16.44140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="D2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E2" t="s">
+        <v>38</v>
+      </c>
+      <c r="F2" t="s">
+        <v>36</v>
+      </c>
+      <c r="G2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="F3" t="s">
+        <v>38</v>
+      </c>
+      <c r="G3" t="s">
+        <v>35</v>
+      </c>
+      <c r="H3" t="s">
+        <v>36</v>
+      </c>
+      <c r="I3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>32</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="G4" t="s">
+        <v>38</v>
+      </c>
+      <c r="H4" t="s">
+        <v>35</v>
+      </c>
+      <c r="I4" t="s">
+        <v>36</v>
+      </c>
+      <c r="J4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/programs/pipelining/pipeliningregandramhazards.xlsx
+++ b/programs/pipelining/pipeliningregandramhazards.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vacla\Projects\cpu\programs\pipelining\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4929D726-AD32-4B54-A8F2-E0D375FDEC0A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4992F9E8-82A9-4C55-A498-59FE2E234D05}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{283EBD8D-59D5-476D-AFCF-7CC67732E96E}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{283EBD8D-59D5-476D-AFCF-7CC67732E96E}"/>
   </bookViews>
   <sheets>
     <sheet name="Code" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="40">
   <si>
     <t>Immediate</t>
   </si>
@@ -152,6 +152,9 @@
   </si>
   <si>
     <t>ST</t>
+  </si>
+  <si>
+    <t>MOV R0, #0 ROR 0</t>
   </si>
 </sst>
 </file>
@@ -527,7 +530,7 @@
   <dimension ref="A1:S13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B11" sqref="A8:B11"/>
+      <selection activeCell="K9" sqref="K9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -784,7 +787,7 @@
         <v>27</v>
       </c>
       <c r="B8" t="s">
-        <v>28</v>
+        <v>39</v>
       </c>
       <c r="C8" s="3">
         <v>1</v>
@@ -817,7 +820,7 @@
         <v>0</v>
       </c>
       <c r="M8" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N8" s="3">
         <v>0</v>
@@ -832,11 +835,11 @@
         <v>0</v>
       </c>
       <c r="R8" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S8" s="3" t="str">
         <f>DEC2HEX(C8*2^15 + D8*2^14 + E8*2^13 + F8*2^12 + G8*2^11 + H8*2^10 + I8*2^9 + J8*2^8 + K8*2^7 + L8*2^6 + M8*2^5 + N8*2^4 + O8 * 2 ^ 3 + P8  * 2^2 + Q8 * 2 + R8)</f>
-        <v>8221</v>
+        <v>8200</v>
       </c>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.3">
@@ -871,7 +874,7 @@
         <v>1</v>
       </c>
       <c r="K9" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L9" s="3">
         <v>1</v>
@@ -886,17 +889,17 @@
         <v>0</v>
       </c>
       <c r="P9" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q9" s="3">
         <v>0</v>
       </c>
       <c r="R9" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S9" s="3" t="str">
         <f t="shared" ref="S9:S10" si="0">DEC2HEX(C9*2^15 + D9*2^14 + E9*2^13 + F9*2^12 + G9*2^11 + H9*2^10 + I9*2^9 + J9*2^8 + K9*2^7 + L9*2^6 + M9*2^5 + N9*2^4 + O9 * 2 ^ 3 + P9  * 2^2 + Q9 * 2 + R9)</f>
-        <v>BC1</v>
+        <v>B44</v>
       </c>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.3">
@@ -1043,6 +1046,16 @@
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="M4:P4"/>
+    <mergeCell ref="Q4:R4"/>
+    <mergeCell ref="D5:H5"/>
+    <mergeCell ref="I5:R5"/>
+    <mergeCell ref="C6:F6"/>
+    <mergeCell ref="G6:H6"/>
+    <mergeCell ref="I6:J6"/>
+    <mergeCell ref="K6:P6"/>
+    <mergeCell ref="Q6:R6"/>
     <mergeCell ref="D2:F2"/>
     <mergeCell ref="G2:H2"/>
     <mergeCell ref="K2:M2"/>
@@ -1052,16 +1065,6 @@
     <mergeCell ref="K3:N3"/>
     <mergeCell ref="O3:P3"/>
     <mergeCell ref="Q3:R3"/>
-    <mergeCell ref="C6:F6"/>
-    <mergeCell ref="G6:H6"/>
-    <mergeCell ref="I6:J6"/>
-    <mergeCell ref="K6:P6"/>
-    <mergeCell ref="Q6:R6"/>
-    <mergeCell ref="G4:H4"/>
-    <mergeCell ref="M4:P4"/>
-    <mergeCell ref="Q4:R4"/>
-    <mergeCell ref="D5:H5"/>
-    <mergeCell ref="I5:R5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1069,10 +1072,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{51EAB318-5794-4230-B6C4-3E439CA2E766}">
-  <dimension ref="A1:J4"/>
+  <dimension ref="A1:K4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="J4" sqref="J4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1080,7 +1083,7 @@
     <col min="2" max="2" width="16.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>27</v>
       </c>
@@ -1097,7 +1100,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>29</v>
       </c>
@@ -1117,7 +1120,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>30</v>
       </c>
@@ -1137,23 +1140,23 @@
         <v>37</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>32</v>
       </c>
       <c r="B4" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="G4" t="s">
+      <c r="H4" t="s">
         <v>38</v>
       </c>
-      <c r="H4" t="s">
+      <c r="I4" t="s">
         <v>35</v>
       </c>
-      <c r="I4" t="s">
+      <c r="J4" t="s">
         <v>36</v>
       </c>
-      <c r="J4" t="s">
+      <c r="K4" t="s">
         <v>37</v>
       </c>
     </row>
